--- a/MoPanda/data/core/Rel-k/MICP - 1Vm.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - 1Vm.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original_Data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processed_Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Original_Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Processed_Data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1918,7 +1918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1952,6 +1952,21 @@
           <t>krg</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Capillary Pressure_Reservoir (MPa)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Normalized Wetting-phase Saturation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Normalized Wetting-phase Saturation_imbibition</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1969,6 +1984,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.0007900245833333332</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1986,6 +2010,15 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.001096458361111111</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2003,6 +2036,15 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.001364587916666666</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2020,6 +2062,15 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.001613565361111111</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2037,6 +2088,15 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.001967879416666666</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2054,6 +2114,15 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.002374861777777777</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2071,6 +2140,15 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.002829724416666666</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2088,6 +2166,15 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.003332467333333332</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2105,6 +2192,15 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.003878302499999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2122,6 +2218,15 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.004472017944444444</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2139,6 +2244,15 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.005123189722222221</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2156,6 +2270,15 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.00579351361111111</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2173,6 +2296,15 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.006559598055555555</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2190,6 +2322,15 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.007325682499999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2207,6 +2348,15 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.008187527499999998</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2224,6 +2374,15 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.009049372499999998</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2241,6 +2400,15 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.01000697805555555</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2258,6 +2426,15 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.01106034416666666</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2275,6 +2452,15 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.01244887222222222</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2292,6 +2478,15 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.0142204425</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2309,6 +2504,15 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.01632717472222222</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2326,6 +2530,15 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.01891270972222222</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2343,6 +2556,15 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
+      <c r="F24" t="n">
+        <v>0.02188128694444444</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2360,6 +2582,15 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.02523290638888888</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2377,6 +2608,15 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.02915908916666666</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2394,6 +2634,15 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.03361195499999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.489598473837209</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2410,6 +2659,15 @@
       </c>
       <c r="E28" t="n">
         <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03878302499999998</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.489598473837209</v>
       </c>
     </row>
     <row r="29">
@@ -2428,6 +2686,15 @@
       <c r="E29" t="n">
         <v>1.526729967857007e-09</v>
       </c>
+      <c r="F29" t="n">
+        <v>0.04462441888888888</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9992376886720536</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.488462936046512</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2445,6 +2712,15 @@
       <c r="E30" t="n">
         <v>1.295097867714922e-07</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.0512318972222222</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.996645830157036</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.484602107558139</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2462,6 +2738,15 @@
       <c r="E31" t="n">
         <v>9.289856635505393e-07</v>
       </c>
+      <c r="F31" t="n">
+        <v>0.05745633333333332</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.993520353712456</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.479946402616279</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2479,6 +2764,15 @@
       <c r="E32" t="n">
         <v>3.698957680096047e-06</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.06511717777777776</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9897087970727244</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.474268713662791</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2496,6 +2790,15 @@
       <c r="E33" t="n">
         <v>1.106552502551635e-05</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.07373562777777777</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9851349291050464</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.467455486918605</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2513,6 +2816,15 @@
       <c r="E34" t="n">
         <v>2.784284525725694e-05</v>
       </c>
+      <c r="F34" t="n">
+        <v>0.0833116833333333</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9797225186766274</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.459393168604651</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2530,6 +2842,15 @@
       <c r="E35" t="n">
         <v>6.119572404495717e-05</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.09480294999999998</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9735477969202622</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.4501953125</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2547,6 +2868,15 @@
       <c r="E36" t="n">
         <v>0.0001225179190315737</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.1067730194444444</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9665345327031559</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.439748364825582</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2564,6 +2894,15 @@
       <c r="E37" t="n">
         <v>0.0002252044047937464</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.1216159055555555</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.958835188290898</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.428279433139535</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2581,6 +2920,15 @@
       <c r="E38" t="n">
         <v>0.0003822739089111645</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.1364587916666666</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.950678457081872</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.41612917877907</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2598,6 +2946,15 @@
       <c r="E39" t="n">
         <v>0.0006227602832191745</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.1560897055555555</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9416831834121054</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.402729832848837</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2615,6 +2972,15 @@
       <c r="E40" t="n">
         <v>0.0009813756776213289</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.1761994222222222</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9317731361488031</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.387967841569767</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2632,6 +2998,15 @@
       <c r="E41" t="n">
         <v>0.001512480155920204</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.1977455472222222</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9207196218935813</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.371502543604651</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2649,6 +3024,15 @@
       <c r="E42" t="n">
         <v>0.002294263270442785</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.2226432916666666</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.908293947248056</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.352993277616279</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2666,6 +3050,15 @@
       <c r="E43" t="n">
         <v>0.003430200001724757</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.2552018805555555</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8943436499466382</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.332212936046512</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2683,6 +3076,15 @@
       <c r="E44" t="n">
         <v>0.005076615112631892</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.2896756805555555</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.8785638054581492</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.30870730377907</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2700,6 +3102,15 @@
       <c r="E45" t="n">
         <v>0.007451696628982717</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.3265434944444444</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.8606494892514102</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.282022165697674</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2717,6 +3128,15 @@
       <c r="E46" t="n">
         <v>0.01098185167260788</v>
       </c>
+      <c r="F46" t="n">
+        <v>0.3691569416666665</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8396096966000913</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.250681322674418</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2734,6 +3154,15 @@
       <c r="E47" t="n">
         <v>0.01610806808710408</v>
       </c>
+      <c r="F47" t="n">
+        <v>0.4165584166666666</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8153681963713979</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.214571220930232</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2751,6 +3180,15 @@
       <c r="E48" t="n">
         <v>0.02337659288983304</v>
       </c>
+      <c r="F48" t="n">
+        <v>0.4720995388888887</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.7878487574325355</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.173578306686047</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2768,6 +3206,15 @@
       <c r="E49" t="n">
         <v>0.03349225846308403</v>
       </c>
+      <c r="F49" t="n">
+        <v>0.536259111111111</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7568226863851196</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.127361918604651</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2785,6 +3232,15 @@
       <c r="E50" t="n">
         <v>0.04680321980495899</v>
       </c>
+      <c r="F50" t="n">
+        <v>0.6080795277777776</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.7232047568226861</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.077284702034883</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2802,6 +3258,15 @@
       <c r="E51" t="n">
         <v>0.06369481773624018</v>
       </c>
+      <c r="F51" t="n">
+        <v>0.6798999444444442</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.6873761244092086</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.023914425872093</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2819,6 +3284,15 @@
       <c r="E52" t="n">
         <v>0.08402033948191764</v>
       </c>
+      <c r="F52" t="n">
+        <v>0.770872472222222</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.6504040250038114</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9688408430232558</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2836,6 +3310,15 @@
       <c r="E53" t="n">
         <v>0.1067080742793406</v>
       </c>
+      <c r="F53" t="n">
+        <v>0.8762090833333331</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.6141942369263607</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9149027979651163</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2853,6 +3336,15 @@
       <c r="E54" t="n">
         <v>0.1306006938501886</v>
       </c>
+      <c r="F54" t="n">
+        <v>1.000697805555555</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.5799664583015702</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8639171511627907</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2870,6 +3362,15 @@
       <c r="E55" t="n">
         <v>0.1549009929125225</v>
       </c>
+      <c r="F55" t="n">
+        <v>1.129974555555555</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.5481018447934135</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8164516715116278</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2887,6 +3388,15 @@
       <c r="E56" t="n">
         <v>0.1791647756598921</v>
       </c>
+      <c r="F56" t="n">
+        <v>1.268827361111111</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.5185241652690959</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.7723928052325583</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2904,6 +3414,15 @@
       <c r="E57" t="n">
         <v>0.2039830907725494</v>
       </c>
+      <c r="F57" t="n">
+        <v>1.426832277777778</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4900899527366976</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.7300372456395348</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2921,6 +3440,15 @@
       <c r="E58" t="n">
         <v>0.2293477255515726</v>
       </c>
+      <c r="F58" t="n">
+        <v>1.623141416666666</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.4625705137978348</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.6890443313953486</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2938,6 +3466,15 @@
       <c r="E59" t="n">
         <v>0.2551617448987032</v>
       </c>
+      <c r="F59" t="n">
+        <v>1.838602666666666</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.4358896173197135</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.6493005087209305</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2955,6 +3492,15 @@
       <c r="E60" t="n">
         <v>0.2812785427979181</v>
       </c>
+      <c r="F60" t="n">
+        <v>2.058851944444444</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.4100472633023327</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.6108057776162791</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2972,6 +3518,15 @@
       <c r="E61" t="n">
         <v>0.3078102132634558</v>
       </c>
+      <c r="F61" t="n">
+        <v>2.3269815</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3848147583473089</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5732194767441858</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2989,6 +3544,15 @@
       <c r="E62" t="n">
         <v>0.3349159457756246</v>
       </c>
+      <c r="F62" t="n">
+        <v>2.623839222222222</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3599634090562584</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.5362009447674416</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3006,6 +3570,15 @@
       <c r="E63" t="n">
         <v>0.362535074324399</v>
       </c>
+      <c r="F63" t="n">
+        <v>2.987729333333333</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3354932154291813</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.4997501816860466</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3023,6 +3596,15 @@
       <c r="E64" t="n">
         <v>0.3903421469226416</v>
       </c>
+      <c r="F64" t="n">
+        <v>3.394711694444443</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3116328708644608</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.4642078488372091</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3040,6 +3622,15 @@
       <c r="E65" t="n">
         <v>0.4170567911943636</v>
       </c>
+      <c r="F65" t="n">
+        <v>3.849574333333333</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.2893733800884279</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.431050145348837</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3057,6 +3648,15 @@
       <c r="E66" t="n">
         <v>0.442324414902356</v>
       </c>
+      <c r="F66" t="n">
+        <v>4.361893305555554</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.2688672053666716</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.4005041787790696</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3074,6 +3674,15 @@
       <c r="E67" t="n">
         <v>0.4659823357785755</v>
       </c>
+      <c r="F67" t="n">
+        <v>4.93166861111111</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.2501143466991919</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.3725699491279069</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3091,6 +3700,15 @@
       <c r="E68" t="n">
         <v>0.4881807964306887</v>
       </c>
+      <c r="F68" t="n">
+        <v>5.554112222222221</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.2328861106876048</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.3469067950581395</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3108,6 +3726,15 @@
       <c r="E69" t="n">
         <v>0.5096110162798148</v>
       </c>
+      <c r="F69" t="n">
+        <v>6.272316388888888</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.2165726482695533</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.3226062863372093</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3125,6 +3752,15 @@
       <c r="E70" t="n">
         <v>0.5310301487584368</v>
       </c>
+      <c r="F70" t="n">
+        <v>7.086281111111109</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.2005641103826803</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.2987599927325582</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3142,6 +3778,15 @@
       <c r="E71" t="n">
         <v>0.552522581170147</v>
       </c>
+      <c r="F71" t="n">
+        <v>8.043886666666666</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.1847842658941912</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.2752543604651163</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3159,6 +3804,15 @@
       <c r="E72" t="n">
         <v>0.574180485658048</v>
       </c>
+      <c r="F72" t="n">
+        <v>9.097252777777776</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.1691568836712912</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.2519758357558137</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3176,6 +3830,15 @@
       <c r="E73" t="n">
         <v>0.5958868702864644</v>
       </c>
+      <c r="F73" t="n">
+        <v>10.19849916666666</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1537581948467752</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.2290379723837207</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3193,6 +3856,15 @@
       <c r="E74" t="n">
         <v>0.6174076486734581</v>
       </c>
+      <c r="F74" t="n">
+        <v>11.58702722222222</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1387406616862326</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.2066678779069766</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3210,6 +3882,15 @@
       <c r="E75" t="n">
         <v>0.6389424230024566</v>
       </c>
+      <c r="F75" t="n">
+        <v>13.07131583333333</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.1239518219240737</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.1846384447674417</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3227,6 +3908,15 @@
       <c r="E76" t="n">
         <v>0.6591149978117392</v>
       </c>
+      <c r="F76" t="n">
+        <v>14.84288611111111</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.1103064491538343</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.1643123183139532</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3244,6 +3934,15 @@
       <c r="E77" t="n">
         <v>0.6787743923834679</v>
       </c>
+      <c r="F77" t="n">
+        <v>16.80597749999999</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.09719469431315743</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.1447810683139534</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3261,6 +3960,15 @@
       <c r="E78" t="n">
         <v>0.6978892362120537</v>
       </c>
+      <c r="F78" t="n">
+        <v>18.91270972222222</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.08461655740204281</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.1260446947674416</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3278,6 +3986,15 @@
       <c r="E79" t="n">
         <v>0.7165471777707879</v>
       </c>
+      <c r="F79" t="n">
+        <v>21.45036444444444</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.07249580728769625</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.1079896438953488</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3295,6 +4012,15 @@
       <c r="E80" t="n">
         <v>0.7347230077867158</v>
       </c>
+      <c r="F80" t="n">
+        <v>24.32318111111111</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.06083244397011747</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.09061591569767455</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3312,6 +4038,15 @@
       <c r="E81" t="n">
         <v>0.7523921999547832</v>
       </c>
+      <c r="F81" t="n">
+        <v>27.48327944444443</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.04962646744930636</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0739235101744187</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3329,6 +4064,15 @@
       <c r="E82" t="n">
         <v>0.7695309404466497</v>
       </c>
+      <c r="F82" t="n">
+        <v>31.07430027777777</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.03887787772526306</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.05791242732558149</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3346,6 +4090,15 @@
       <c r="E83" t="n">
         <v>0.7861161604107543</v>
       </c>
+      <c r="F83" t="n">
+        <v>35.09624361111111</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02858667479798757</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.04258266715116291</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3363,6 +4116,15 @@
       <c r="E84" t="n">
         <v>0.802250291018614</v>
       </c>
+      <c r="F84" t="n">
+        <v>39.69275027777777</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01867662753468521</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0278206758720931</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3380,6 +4142,15 @@
       <c r="E85" t="n">
         <v>0.8179153972262196</v>
       </c>
+      <c r="F85" t="n">
+        <v>44.91170055555555</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.00914773593535592</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.01362645348837198</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3396,6 +4167,15 @@
       </c>
       <c r="E86" t="n">
         <v>0.8330940948544628</v>
+      </c>
+      <c r="F86" t="n">
+        <v>51.23189722222222</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +4189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3450,7 +4230,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>lambda</t>
+          <t>lambda_d</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lambda_i</t>
         </is>
       </c>
     </row>
@@ -3459,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.516991643454071</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -3468,1455 +4253,1293 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24996.42586944132</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-1813146.862839248</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.998729104778566</v>
+        <v>0.9836814213578557</v>
       </c>
       <c r="B3" t="n">
-        <v>9.563430650459004</v>
+        <v>0.6898038703374475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9943006177188644</v>
+        <v>0.9540493922229661</v>
       </c>
       <c r="D3" t="n">
-        <v>9.205497860164084e-09</v>
+        <v>1.192386396646932e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>25549.32461470347</v>
+        <v>0.9540498417228215</v>
       </c>
       <c r="F3" t="n">
-        <v>-1873518.542176645</v>
+        <v>1.192374732437497e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.997458209557132</v>
+        <v>0.9673628427157114</v>
       </c>
       <c r="B4" t="n">
-        <v>9.609869657463936</v>
+        <v>0.679607740674895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9886265232312665</v>
+        <v>0.9093092307298296</v>
       </c>
       <c r="D4" t="n">
-        <v>7.348060606760339e-08</v>
+        <v>9.413450207572181e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>26111.6855127778</v>
+        <v>0.9093100965911821</v>
       </c>
       <c r="F4" t="n">
-        <v>-1935581.344551683</v>
+        <v>9.413360333566324e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9961873143356981</v>
+        <v>0.951044264073567</v>
       </c>
       <c r="B5" t="n">
-        <v>9.656308664468868</v>
+        <v>0.6694116110123426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9829776363425921</v>
+        <v>0.8657723663763055</v>
       </c>
       <c r="D5" t="n">
-        <v>2.474468144866783e-07</v>
+        <v>0.0003134802582965949</v>
       </c>
       <c r="E5" t="n">
-        <v>26683.6235950564</v>
+        <v>0.8657736162353912</v>
       </c>
       <c r="F5" t="n">
-        <v>-1999373.804635244</v>
+        <v>0.0003134773393287309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9949164191142641</v>
+        <v>0.9347256854314228</v>
       </c>
       <c r="B6" t="n">
-        <v>9.702747671473805</v>
+        <v>0.6592154813497901</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9773538770107886</v>
+        <v>0.8234315398390397</v>
       </c>
       <c r="D6" t="n">
-        <v>5.852391053906549e-07</v>
+        <v>0.0007330926493748835</v>
       </c>
       <c r="E6" t="n">
-        <v>27265.25472670815</v>
+        <v>0.8234331421150959</v>
       </c>
       <c r="F6" t="n">
-        <v>-2064935.136041872</v>
+        <v>0.0007330859969025339</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9936455238928301</v>
+        <v>0.9184071067892785</v>
       </c>
       <c r="B7" t="n">
-        <v>9.749186678478738</v>
+        <v>0.6490193516872376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9717551653462694</v>
+        <v>0.7822793774652433</v>
       </c>
       <c r="D7" t="n">
-        <v>1.14050853294314e-06</v>
+        <v>0.00141242478140679</v>
       </c>
       <c r="E7" t="n">
-        <v>27856.69560866864</v>
+        <v>0.7822813013691774</v>
       </c>
       <c r="F7" t="n">
-        <v>-2132305.239822265</v>
+        <v>0.001412412300413663</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9923746286713961</v>
+        <v>0.9020885281471341</v>
       </c>
       <c r="B8" t="n">
-        <v>9.795625685483671</v>
+        <v>0.6388232220246851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9661814216118172</v>
+        <v>0.7423083868694406</v>
       </c>
       <c r="D8" t="n">
-        <v>1.966424795297348e-06</v>
+        <v>0.002407290697577321</v>
       </c>
       <c r="E8" t="n">
-        <v>28458.06377962569</v>
+        <v>0.7423106024127716</v>
       </c>
       <c r="F8" t="n">
-        <v>-2201524.713019101</v>
+        <v>0.002407270000524801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9911037334499622</v>
+        <v>0.8857699495049898</v>
       </c>
       <c r="B9" t="n">
-        <v>9.842064692488602</v>
+        <v>0.6286270923621327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.960632566222488</v>
+        <v>0.7035109522557684</v>
       </c>
       <c r="D9" t="n">
-        <v>3.115678799319728e-06</v>
+        <v>0.003769905708543025</v>
       </c>
       <c r="E9" t="n">
-        <v>29069.47761799949</v>
+        <v>0.7035134302598591</v>
       </c>
       <c r="F9" t="n">
-        <v>-2272634.857286263</v>
+        <v>0.003769874200324295</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9898328382285282</v>
+        <v>0.8694513708628455</v>
       </c>
       <c r="B10" t="n">
-        <v>9.888503699493535</v>
+        <v>0.6184309626995802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9551085197455146</v>
+        <v>0.665879329441878</v>
       </c>
       <c r="D10" t="n">
-        <v>4.64048521794452e-06</v>
+        <v>0.005548927761324465</v>
       </c>
       <c r="E10" t="n">
-        <v>29691.0563439185</v>
+        <v>0.6658820415474702</v>
       </c>
       <c r="F10" t="n">
-        <v>-2345677.687571716</v>
+        <v>0.005548882719878848</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9885619430070943</v>
+        <v>0.8531327922207013</v>
       </c>
       <c r="B11" t="n">
-        <v>9.934942706498463</v>
+        <v>0.6082348330370277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9496092029002108</v>
+        <v>0.6294056405577704</v>
       </c>
       <c r="D11" t="n">
-        <v>6.59258504016549e-06</v>
+        <v>0.007789499907464171</v>
       </c>
       <c r="E11" t="n">
-        <v>30322.92002119005</v>
+        <v>0.6294085592348432</v>
       </c>
       <c r="F11" t="n">
-        <v>-2420695.940864106</v>
+        <v>0.007789438559971395</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9872910477856603</v>
+        <v>0.8368142135785569</v>
       </c>
       <c r="B12" t="n">
-        <v>9.981381713503399</v>
+        <v>0.5980387033744753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9441345365578728</v>
+        <v>0.5940818683897999</v>
       </c>
       <c r="D12" t="n">
-        <v>9.023248113672689e-06</v>
+        <v>0.01053329393667454</v>
       </c>
       <c r="E12" t="n">
-        <v>30965.1895592671</v>
+        <v>0.5940849669477674</v>
       </c>
       <c r="F12" t="n">
-        <v>-2497733.085003346</v>
+        <v>0.0105332135312447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9860201525642264</v>
+        <v>0.8204956349364125</v>
       </c>
       <c r="B13" t="n">
-        <v>10.02782072050833</v>
+        <v>0.5878425737119228</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9386844417416861</v>
+        <v>0.5598998503365333</v>
       </c>
       <c r="D13" t="n">
-        <v>1.198327568013789e-05</v>
+        <v>0.01381855524833261</v>
       </c>
       <c r="E13" t="n">
-        <v>31617.98671520908</v>
+        <v>0.5599031029348027</v>
       </c>
       <c r="F13" t="n">
-        <v>-2576833.327555148</v>
+        <v>0.01381845312110334</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9847492573427924</v>
+        <v>0.8041770562942683</v>
       </c>
       <c r="B14" t="n">
-        <v>10.07425972751327</v>
+        <v>0.5776464440493703</v>
       </c>
       <c r="C14" t="n">
-        <v>0.933258839626626</v>
+        <v>0.5268512719390801</v>
       </c>
       <c r="D14" t="n">
-        <v>1.552300290315894e-05</v>
+        <v>0.01768014904007786</v>
       </c>
       <c r="E14" t="n">
-        <v>32281.4340956395</v>
+        <v>0.5268546535979926</v>
       </c>
       <c r="F14" t="n">
-        <v>-2658041.624749929</v>
+        <v>0.01768002267762557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9834783621213584</v>
+        <v>0.787858477652124</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1206987345182</v>
+        <v>0.5674503143868179</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9278576515393626</v>
+        <v>0.4949276599438179</v>
       </c>
       <c r="D15" t="n">
-        <v>1.969230138886682e-05</v>
+        <v>0.02214960790055522</v>
       </c>
       <c r="E15" t="n">
-        <v>32955.6551586979</v>
+        <v>0.4949311465559936</v>
       </c>
       <c r="F15" t="n">
-        <v>-2741403.690485978</v>
+        <v>0.02214945499752239</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9822074668999244</v>
+        <v>0.7715398990099797</v>
       </c>
       <c r="B16" t="n">
-        <v>10.16713774152313</v>
+        <v>0.5572541847242654</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9224807989581632</v>
+        <v>0.4641203748500116</v>
       </c>
       <c r="D16" t="n">
-        <v>2.454058169920329e-05</v>
+        <v>0.02725518090216396</v>
       </c>
       <c r="E16" t="n">
-        <v>33640.77421598785</v>
+        <v>0.4641239431921266</v>
       </c>
       <c r="F16" t="n">
-        <v>-2826966.00539722</v>
+        <v>0.02725499941399888</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9809365716784905</v>
+        <v>0.7552213203678353</v>
       </c>
       <c r="B17" t="n">
-        <v>10.21357674852806</v>
+        <v>0.5470580550617129</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9171282035127958</v>
+        <v>0.4344206028885317</v>
       </c>
       <c r="D17" t="n">
-        <v>3.011679585787518e-05</v>
+        <v>0.03302188429969426</v>
       </c>
       <c r="E17" t="n">
-        <v>34336.91643452004</v>
+        <v>0.434424230633554</v>
       </c>
       <c r="F17" t="n">
-        <v>-2914775.825985616</v>
+        <v>0.03302167249039391</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9796656764570565</v>
+        <v>0.738902741725691</v>
       </c>
       <c r="B18" t="n">
-        <v>10.26001575553299</v>
+        <v>0.5368619253991604</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9117997869844322</v>
+        <v>0.4058193473705349</v>
       </c>
       <c r="D18" t="n">
-        <v>3.646943984899233e-05</v>
+        <v>0.03947155395216993</v>
       </c>
       <c r="E18" t="n">
-        <v>35044.20783865105</v>
+        <v>0.4058230131004489</v>
       </c>
       <c r="F18" t="n">
-        <v>-3004881.193818422</v>
+        <v>0.03947131043691</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9783947812356225</v>
+        <v>0.7225841630835468</v>
       </c>
       <c r="B19" t="n">
-        <v>10.30645476253793</v>
+        <v>0.526665795736608</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9064954713055516</v>
+        <v>0.3783074193363902</v>
       </c>
       <c r="D19" t="n">
-        <v>4.364655610839509e-05</v>
+        <v>0.04662289959831231</v>
       </c>
       <c r="E19" t="n">
-        <v>35762.7753120178</v>
+        <v>0.3783111025554458</v>
       </c>
       <c r="F19" t="n">
-        <v>-3097330.944790449</v>
+        <v>0.04662262338084155</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9771238860141885</v>
+        <v>0.7062655844414024</v>
       </c>
       <c r="B20" t="n">
-        <v>10.35289376954286</v>
+        <v>0.5164696660740555</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9012151785598427</v>
+        <v>0.351875427425036</v>
       </c>
       <c r="D20" t="n">
-        <v>5.169573600767913e-05</v>
+        <v>0.05449156113111254</v>
       </c>
       <c r="E20" t="n">
-        <v>36492.74659946701</v>
+        <v>0.351879108573556</v>
       </c>
       <c r="F20" t="n">
-        <v>-3192174.718451391</v>
+        <v>0.05449125163578079</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9758529907927546</v>
+        <v>0.6899470057992581</v>
       </c>
       <c r="B21" t="n">
-        <v>10.3993327765478</v>
+        <v>0.506273536411503</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8959588309821073</v>
+        <v>0.3265137668720358</v>
       </c>
       <c r="D21" t="n">
-        <v>6.066412233092257e-05</v>
+        <v>0.06309016703441314</v>
       </c>
       <c r="E21" t="n">
-        <v>37234.25030898101</v>
+        <v>0.326517427340825</v>
       </c>
       <c r="F21" t="n">
-        <v>-3289462.967398536</v>
+        <v>0.06308982413269375</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9745820955713206</v>
+        <v>0.6736284271571138</v>
       </c>
       <c r="B22" t="n">
-        <v>10.44577178355273</v>
+        <v>0.4960774067489506</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8907263509581631</v>
+        <v>0.3022126075304521</v>
       </c>
       <c r="D22" t="n">
-        <v>7.059841174412361e-05</v>
+        <v>0.07242839516462468</v>
       </c>
       <c r="E22" t="n">
-        <v>37987.41591359853</v>
+        <v>0.30221622967585</v>
       </c>
       <c r="F22" t="n">
-        <v>-3389246.96673484</v>
+        <v>0.07242801919598287</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9733112003498866</v>
+        <v>0.6573098485149695</v>
       </c>
       <c r="B23" t="n">
-        <v>10.49221079055766</v>
+        <v>0.4858812770863981</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8855176610247466</v>
+        <v>0.2789618807917724</v>
       </c>
       <c r="D23" t="n">
-        <v>8.154485725735423e-05</v>
+        <v>0.08251303608430847</v>
       </c>
       <c r="E23" t="n">
-        <v>38752.37375333161</v>
+        <v>0.2789654479514018</v>
       </c>
       <c r="F23" t="n">
-        <v>-3491578.823592627</v>
+        <v>0.08251262787125653</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9720403051284526</v>
+        <v>0.6409912698728252</v>
       </c>
       <c r="B24" t="n">
-        <v>10.53864979756259</v>
+        <v>0.4756851474238456</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8803326838694155</v>
+        <v>0.2567512652638603</v>
       </c>
       <c r="D24" t="n">
-        <v>9.354927067963711e-05</v>
+        <v>0.09334805918205967</v>
       </c>
       <c r="E24" t="n">
-        <v>39529.25503707769</v>
+        <v>0.2567547617731247</v>
       </c>
       <c r="F24" t="n">
-        <v>-3596511.486722995</v>
+        <v>0.09334762003922835</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9707694099070187</v>
+        <v>0.6246726912306808</v>
       </c>
       <c r="B25" t="n">
-        <v>10.58508880456753</v>
+        <v>0.4654890177612931</v>
       </c>
       <c r="C25" t="n">
-        <v>0.875171342330452</v>
+        <v>0.2355701710384424</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001066570250665519</v>
+        <v>0.104934681845829</v>
       </c>
       <c r="E25" t="n">
-        <v>40318.19184452796</v>
+        <v>0.2355735822478353</v>
       </c>
       <c r="F25" t="n">
-        <v>-3704098.756151152</v>
+        <v>0.1049342135828717</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9694985146855847</v>
+        <v>0.6083541125885366</v>
       </c>
       <c r="B26" t="n">
-        <v>10.63152781157246</v>
+        <v>0.4552928880987407</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8700335593967649</v>
+        <v>0.2154077223509153</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000120913057160578</v>
+        <v>0.1172714419956671</v>
       </c>
       <c r="E26" t="n">
-        <v>41119.31712807083</v>
+        <v>0.2154110346442084</v>
       </c>
       <c r="F26" t="n">
-        <v>-3814395.292897721</v>
+        <v>0.1172709469137986</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9682276194641508</v>
+        <v>0.5920355339463923</v>
       </c>
       <c r="B27" t="n">
-        <v>10.67796681857739</v>
+        <v>0.4450967584361882</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8649192582077927</v>
+        <v>0.1962527383988799</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001363618698241792</v>
+        <v>0.1303542743283357</v>
       </c>
       <c r="E27" t="n">
-        <v>41932.76471469184</v>
+        <v>0.1962559392122688</v>
       </c>
       <c r="F27" t="n">
-        <v>-3927456.628766309</v>
+        <v>0.1303537552102914</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9669567242427168</v>
+        <v>0.5757169553042479</v>
       </c>
       <c r="B28" t="n">
-        <v>10.72440582558232</v>
+        <v>0.4349006287736358</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8598283620534048</v>
+        <v>0.1780937120409794</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001530475344656439</v>
+        <v>0.1441765906821831</v>
       </c>
       <c r="E28" t="n">
-        <v>42758.66930786907</v>
+        <v>0.1780967898832729</v>
       </c>
       <c r="F28" t="n">
-        <v>-4043339.176197391</v>
+        <v>0.1441760507753652</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9656858290212829</v>
+        <v>0.5593983766621036</v>
       </c>
       <c r="B29" t="n">
-        <v>10.77084483258725</v>
+        <v>0.4247044991110833</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8547607943738061</v>
+        <v>0.1609187860418925</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001710136934576688</v>
+        <v>0.1587293649986172</v>
       </c>
       <c r="E29" t="n">
-        <v>43597.1664894639</v>
+        <v>0.1609217305158444</v>
       </c>
       <c r="F29" t="n">
-        <v>-4162100.238188582</v>
+        <v>0.1587288079911752</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9644149337998489</v>
+        <v>0.5430797980199593</v>
       </c>
       <c r="B30" t="n">
-        <v>10.81728383959219</v>
+        <v>0.4145083694485308</v>
       </c>
       <c r="C30" t="n">
-        <v>0.849716478759438</v>
+        <v>0.1447157264595076</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001903035625487182</v>
+        <v>0.1740012234396668</v>
       </c>
       <c r="E30" t="n">
-        <v>44448.39272160846</v>
+        <v>0.1447185282844023</v>
       </c>
       <c r="F30" t="n">
-        <v>-4283798.018281675</v>
+        <v>0.1740006534292333</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9631440385784149</v>
+        <v>0.5267612193778151</v>
       </c>
       <c r="B31" t="n">
-        <v>10.86372284659712</v>
+        <v>0.4043122397859784</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8446953389508808</v>
+        <v>0.1294718926819417</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0002109599332671467</v>
+        <v>0.1899785403238664</v>
       </c>
       <c r="E31" t="n">
-        <v>45312.48534858834</v>
+        <v>0.1294745437175626</v>
       </c>
       <c r="F31" t="n">
-        <v>-4408491.630616364</v>
+        <v>0.1899779617786439</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9618731433569809</v>
+        <v>0.5104426407356707</v>
       </c>
       <c r="B32" t="n">
-        <v>10.91016185360206</v>
+        <v>0.3941161101234258</v>
       </c>
       <c r="C32" t="n">
-        <v>0.839697298838756</v>
+        <v>0.1151742035091489</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0002330251753180995</v>
+        <v>0.2066455406709032</v>
       </c>
       <c r="E32" t="n">
-        <v>46189.58259872131</v>
+        <v>0.1151766967812756</v>
       </c>
       <c r="F32" t="n">
-        <v>-4536241.110050892</v>
+        <v>0.2066449583827639</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.960602248135547</v>
+        <v>0.4941240620935263</v>
       </c>
       <c r="B33" t="n">
-        <v>10.95660086060699</v>
+        <v>0.3839199804608734</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8347222824636289</v>
+        <v>0.1018090985279135</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002565412389731946</v>
+        <v>0.2239844103071858</v>
       </c>
       <c r="E33" t="n">
-        <v>47079.82358623231</v>
+        <v>0.1018114282555183</v>
       </c>
       <c r="F33" t="n">
-        <v>-4667107.422349841</v>
+        <v>0.2239838293364112</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.959331352914113</v>
+        <v>0.4778054834513821</v>
       </c>
       <c r="B34" t="n">
-        <v>11.00303986761192</v>
+        <v>0.3737238507983209</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8297702140159104</v>
+        <v>0.0893624938380988</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002815496574529957</v>
+        <v>0.241975414690953</v>
       </c>
       <c r="E34" t="n">
-        <v>47983.34831312406</v>
+        <v>0.08936465546244007</v>
       </c>
       <c r="F34" t="n">
-        <v>-4801152.474439075</v>
+        <v>0.2419748403021947</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.958060457692679</v>
+        <v>0.4614869048092378</v>
       </c>
       <c r="B35" t="n">
-        <v>11.04947887461685</v>
+        <v>0.3635277211357685</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824841017835759</v>
+        <v>0.07781973093488308</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0003080915493022809</v>
+        <v>0.2605970278826002</v>
       </c>
       <c r="E35" t="n">
-        <v>48900.29767104359</v>
+        <v>0.07782172115072629</v>
       </c>
       <c r="F35" t="n">
-        <v>-4938439.124728033</v>
+        <v>0.2605964654715934</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.956789562471245</v>
+        <v>0.4451683261670935</v>
       </c>
       <c r="B36" t="n">
-        <v>11.09591788162179</v>
+        <v>0.353331591473216</v>
       </c>
       <c r="C36" t="n">
-        <v>0.819934618412983</v>
+        <v>0.06716551721107838</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0003362076207581136</v>
+        <v>0.2798260734364092</v>
       </c>
       <c r="E36" t="n">
-        <v>49830.81344314498</v>
+        <v>0.06716733400031807</v>
       </c>
       <c r="F36" t="n">
-        <v>-5079031.193499573</v>
+        <v>0.2798255284469083</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.955518667249811</v>
+        <v>0.4288497475249491</v>
       </c>
       <c r="B37" t="n">
-        <v>11.14235688862672</v>
+        <v>0.3431354618106635</v>
       </c>
       <c r="C37" t="n">
-        <v>0.815050940386942</v>
+        <v>0.05738385607764491</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003659381681107246</v>
+        <v>0.299637879457458</v>
       </c>
       <c r="E37" t="n">
-        <v>50775.03830594819</v>
+        <v>0.05738549874565121</v>
       </c>
       <c r="F37" t="n">
-        <v>-5222993.473367468</v>
+        <v>0.2996373572877909</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9542477720283771</v>
+        <v>0.4125311688828048</v>
       </c>
       <c r="B38" t="n">
-        <v>11.18879589563165</v>
+        <v>0.3329393321481111</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8101899085464497</v>
+        <v>0.04845796405117606</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0003973230800572086</v>
+        <v>0.3200064507026935</v>
       </c>
       <c r="E38" t="n">
-        <v>51733.1158311937</v>
+        <v>0.04845943326625437</v>
       </c>
       <c r="F38" t="n">
-        <v>-5370391.739801667</v>
+        <v>0.3200059566012405</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9529768768069431</v>
+        <v>0.3962125902406606</v>
       </c>
       <c r="B39" t="n">
-        <v>11.23523490263659</v>
+        <v>0.3227432024855586</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8053514478296746</v>
+        <v>0.04037017123329192</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0004304018400480448</v>
+        <v>0.3409046614859815</v>
       </c>
       <c r="E39" t="n">
-        <v>52705.19048769317</v>
+        <v>0.04037146906972591</v>
       </c>
       <c r="F39" t="n">
-        <v>-5521292.761721484</v>
+        <v>0.3409042004347751</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9517059815855091</v>
+        <v>0.3798940115985162</v>
       </c>
       <c r="B40" t="n">
-        <v>11.28167390964152</v>
+        <v>0.3125470728230061</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8005354833240425</v>
+        <v>0.03310180026105429</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004652135286264478</v>
+        <v>0.3623044743972543</v>
       </c>
       <c r="E40" t="n">
-        <v>53691.40764317677</v>
+        <v>0.03310293024630687</v>
       </c>
       <c r="F40" t="n">
-        <v>-5675764.312156979</v>
+        <v>0.3623040509827593</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9504350863640751</v>
+        <v>0.3635754329563718</v>
       </c>
       <c r="B41" t="n">
-        <v>11.32811291664645</v>
+        <v>0.3023509431604536</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7957419402661375</v>
+        <v>0.02663301679309569</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0005017968257605537</v>
+        <v>0.3841771916688794</v>
       </c>
       <c r="E41" t="n">
-        <v>54691.91356613598</v>
+        <v>0.02663398395987849</v>
       </c>
       <c r="F41" t="n">
-        <v>-5833875.178978439</v>
+        <v>0.3841768099388383</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9491641911426412</v>
+        <v>0.3472568543142276</v>
       </c>
       <c r="B42" t="n">
-        <v>11.37455192365139</v>
+        <v>0.2921548134979012</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7909707440416046</v>
+        <v>0.02094264148470304</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0005401900131684495</v>
+        <v>0.4064937487644515</v>
       </c>
       <c r="E42" t="n">
-        <v>55706.85542766301</v>
+        <v>0.02094345242880336</v>
       </c>
       <c r="F42" t="n">
-        <v>-5995695.175694335</v>
+        <v>0.4064934120694616</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9478932959212072</v>
+        <v>0.3309382756720833</v>
       </c>
       <c r="B43" t="n">
-        <v>11.42099093065632</v>
+        <v>0.2819586838353487</v>
       </c>
       <c r="C43" t="n">
-        <v>0.78622182018505</v>
+        <v>0.01600790841850421</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0005804309766360538</v>
+        <v>0.4292250640434108</v>
       </c>
       <c r="E43" t="n">
-        <v>56736.38130328594</v>
+        <v>0.0160085713634952</v>
       </c>
       <c r="F43" t="n">
-        <v>-6161295.152317715</v>
+        <v>0.4292247748616088</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9466224006997733</v>
+        <v>0.314619697029939</v>
       </c>
       <c r="B44" t="n">
-        <v>11.46742993766125</v>
+        <v>0.2717625541727963</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7814950943799441</v>
+        <v>0.011804146605958</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0006225572083278482</v>
+        <v>0.4523424653276564</v>
       </c>
       <c r="E44" t="n">
-        <v>57780.64017480048</v>
+        <v>0.01180467147623536</v>
       </c>
       <c r="F44" t="n">
-        <v>-6330747.006301318</v>
+        <v>0.4523422250705106</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9453515054783393</v>
+        <v>0.2983011183877946</v>
       </c>
       <c r="B45" t="n">
-        <v>11.51386894466618</v>
+        <v>0.2615664245102438</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7767904924585205</v>
+        <v>0.008304346419324208</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0006666058090904925</v>
+        <v>0.4758182261805189</v>
       </c>
       <c r="E45" t="n">
-        <v>58839.78193209793</v>
+        <v>0.00830474492333705</v>
       </c>
       <c r="F45" t="n">
-        <v>-6504123.693541505</v>
+        <v>0.4758180349772281</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9440806102569054</v>
+        <v>0.2819825397456504</v>
       </c>
       <c r="B46" t="n">
-        <v>11.56030795167112</v>
+        <v>0.2513702948476913</v>
       </c>
       <c r="C46" t="n">
-        <v>0.77210794040168</v>
+        <v>0.00547854494754173</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0007126134907492732</v>
+        <v>0.4996262667141861</v>
       </c>
       <c r="E46" t="n">
-        <v>59913.95737498895</v>
+        <v>0.005478830673637988</v>
       </c>
       <c r="F46" t="n">
-        <v>-6681499.239451054</v>
+        <v>0.4996261231715184</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9428097150354714</v>
+        <v>0.2656639611035061</v>
       </c>
       <c r="B47" t="n">
-        <v>11.60674695867605</v>
+        <v>0.2411741651851388</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7674473643388903</v>
+        <v>0.003292906938339868</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0007606165783974632</v>
+        <v>0.523743117735104</v>
       </c>
       <c r="E47" t="n">
-        <v>61003.31821502409</v>
+        <v>0.003293095466287139</v>
       </c>
       <c r="F47" t="n">
-        <v>-6862948.750101132</v>
+        <v>0.5237430186686726</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9415388198140374</v>
+        <v>0.2493453824613617</v>
       </c>
       <c r="B48" t="n">
-        <v>11.65318596568098</v>
+        <v>0.2309780355225863</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7628086905480879</v>
+        <v>0.001708245651315746</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0008106510126785492</v>
+        <v>0.5481493456329354</v>
       </c>
       <c r="E48" t="n">
-        <v>62108.01707731053</v>
+        <v>0.001708354682921647</v>
       </c>
       <c r="F48" t="n">
-        <v>-7048548.423432481</v>
+        <v>0.5481492857650629</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9402679245926034</v>
+        <v>0.2330268038192174</v>
       </c>
       <c r="B49" t="n">
-        <v>11.69962497268591</v>
+        <v>0.2207819058600339</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7581918454555783</v>
+        <v>0.0006773674499557154</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0008627523520613545</v>
+        <v>0.572831895847688</v>
       </c>
       <c r="E49" t="n">
-        <v>63228.20750232474</v>
+        <v>0.0006774169601923296</v>
       </c>
       <c r="F49" t="n">
-        <v>-7238375.560535914</v>
+        <v>0.5728318674674215</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9389970293711695</v>
+        <v>0.2167082251770731</v>
       </c>
       <c r="B50" t="n">
-        <v>11.74606397969084</v>
+        <v>0.2105857761974814</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7535967556359383</v>
+        <v>0.00013933787709495</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0009169557751080531</v>
+        <v>0.5977887113201431</v>
       </c>
       <c r="E50" t="n">
-        <v>64364.04394772196</v>
+        <v>0.0001393502686618449</v>
       </c>
       <c r="F50" t="n">
-        <v>-7432508.577002412</v>
+        <v>0.597788703911572</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9377261341497355</v>
+        <v>0.2003896465349289</v>
       </c>
       <c r="B51" t="n">
-        <v>11.79250298669578</v>
+        <v>0.2003896465349289</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7490233478119162</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0009732960827350948</v>
+        <v>0.6230428446650855</v>
       </c>
       <c r="E51" t="n">
-        <v>65515.68179014203</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-7631027.014342862</v>
+        <v>0.6230428446650855</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5723260914358298</v>
+        <v>1.560852357618379</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.560880192305588</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CB7B5A94B3B66459EB2A158AFFC5DBC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ab064ae1c06d5d5cb1b59fac93aef9e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xmlns:ns3="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c0cefaab21e83ce2f7997d16a1f1916" ns2:_="" ns3:_="">
-    <xsd:import namespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
-    <xsd:import namespace="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:Project_x0020_Type" minOccurs="0"/>
-                <xsd:element ref="ns2:Project_x0020_Name" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Project_x0020_Type" ma:index="19" nillable="true" ma:displayName="Project Type" ma:default="Enter Choice #1" ma:format="Dropdown" ma:internalName="Project_x0020_Type">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Enter Choice #1"/>
-          <xsd:enumeration value="Enter Choice #2"/>
-          <xsd:enumeration value="Enter Choice #3"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Project_x0020_Name" ma:index="20" nillable="true" ma:displayName="Project Name" ma:internalName="Project_x0020_Name">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoice">
-            <xsd:sequence>
-              <xsd:element name="Value" maxOccurs="unbounded" minOccurs="0" nillable="true">
-                <xsd:simpleType>
-                  <xsd:restriction base="dms:Choice">
-                    <xsd:enumeration value="Sterling&amp;Adena"/>
-                    <xsd:enumeration value="Four Corners"/>
-                  </xsd:restriction>
-                </xsd:simpleType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="61128053-81a9-4f46-8667-b4595cb21c10" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{50fc448d-3904-4a19-944c-e0ed7da12a7c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" xsi:nil="true"/>
-    <Project_x0020_Type xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">Enter Choice #1</Project_x0020_Type>
-    <Project_x0020_Name xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4790D5EA-3CF8-4A10-A99F-0CDF23FE6397}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6AF42D6-C1A7-42B5-AC9F-21A421C0DD5E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F142DC4-E9A0-4A21-A0A1-B8543AE6B1EA}"/>
 </file>
--- a/MoPanda/data/core/Rel-k/MICP - 1Vm.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - 1Vm.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Original_Data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Processed_Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original_Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processed_Data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1918,7 +1918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,15 +1954,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Capillary Pressure_Reservoir (psi)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Capillary Pressure_Reservoir (MPa)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Normalized Wetting-phase Saturation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Normalized Wetting-phase Saturation_imbibition</t>
         </is>
@@ -1985,13 +1990,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0.1145833333333333</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0007900245833333332</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="3">
@@ -2011,13 +2019,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.1590277777777777</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.001096458361111111</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="4">
@@ -2037,13 +2048,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0.1979166666666666</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.001364587916666666</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="5">
@@ -2063,13 +2077,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0.2340277777777778</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.001613565361111111</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="6">
@@ -2089,13 +2106,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0.2854166666666666</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.001967879416666666</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="7">
@@ -2115,13 +2135,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0.3444444444444444</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.002374861777777777</v>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="8">
@@ -2141,13 +2164,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0.4104166666666665</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.002829724416666666</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="9">
@@ -2167,13 +2193,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0.4833333333333332</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.003332467333333332</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="10">
@@ -2193,13 +2222,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0.5624999999999999</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.003878302499999999</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="11">
@@ -2219,13 +2251,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0.648611111111111</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.004472017944444444</v>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="12">
@@ -2245,13 +2280,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0.7430555555555555</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.005123189722222221</v>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="13">
@@ -2271,13 +2309,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0.8402777777777776</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.00579351361111111</v>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="14">
@@ -2297,13 +2338,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0.9513888888888887</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.006559598055555555</v>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="15">
@@ -2323,13 +2367,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.007325682499999999</v>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="16">
@@ -2349,13 +2396,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.008187527499999998</v>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="17">
@@ -2375,13 +2425,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.009049372499999998</v>
       </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
       <c r="H17" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="18">
@@ -2401,13 +2454,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>1.451388888888889</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.01000697805555555</v>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="19">
@@ -2427,13 +2483,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>1.604166666666666</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.01106034416666666</v>
       </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
       <c r="H19" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="20">
@@ -2453,13 +2512,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>1.805555555555555</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.01244887222222222</v>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
       <c r="H20" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="21">
@@ -2479,13 +2541,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>2.0625</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.0142204425</v>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
       <c r="H21" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="22">
@@ -2505,13 +2570,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>2.368055555555555</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.01632717472222222</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
       <c r="H22" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="23">
@@ -2531,13 +2599,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>2.743055555555555</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.01891270972222222</v>
       </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
       <c r="H23" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="24">
@@ -2557,13 +2628,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>3.173611111111111</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.02188128694444444</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
       <c r="H24" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="25">
@@ -2583,13 +2657,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>3.659722222222221</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.02523290638888888</v>
       </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
       <c r="H25" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="26">
@@ -2609,13 +2686,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>4.229166666666666</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.02915908916666666</v>
       </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
       <c r="H26" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="27">
@@ -2635,13 +2715,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>4.874999999999999</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.03361195499999999</v>
       </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
       <c r="H27" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="28">
@@ -2661,13 +2744,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>5.624999999999998</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.03878302499999998</v>
       </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
       <c r="H28" t="n">
-        <v>1.489598473837209</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.740901759411672</v>
       </c>
     </row>
     <row r="29">
@@ -2687,13 +2773,16 @@
         <v>1.526729967857007e-09</v>
       </c>
       <c r="F29" t="n">
+        <v>6.472222222222221</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.04462441888888888</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>0.9992376886720536</v>
       </c>
-      <c r="H29" t="n">
-        <v>1.488462936046512</v>
+      <c r="I29" t="n">
+        <v>1.73957465027963</v>
       </c>
     </row>
     <row r="30">
@@ -2713,13 +2802,16 @@
         <v>1.295097867714922e-07</v>
       </c>
       <c r="F30" t="n">
+        <v>7.430555555555554</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.0512318972222222</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>0.996645830157036</v>
       </c>
-      <c r="H30" t="n">
-        <v>1.484602107558139</v>
+      <c r="I30" t="n">
+        <v>1.73506247923069</v>
       </c>
     </row>
     <row r="31">
@@ -2739,13 +2831,16 @@
         <v>9.289856635505393e-07</v>
       </c>
       <c r="F31" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.05745633333333332</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0.993520353712456</v>
       </c>
-      <c r="H31" t="n">
-        <v>1.479946402616279</v>
+      <c r="I31" t="n">
+        <v>1.729621331789321</v>
       </c>
     </row>
     <row r="32">
@@ -2765,13 +2860,16 @@
         <v>3.698957680096047e-06</v>
       </c>
       <c r="F32" t="n">
+        <v>9.444444444444443</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.06511717777777776</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>0.9897087970727244</v>
       </c>
-      <c r="H32" t="n">
-        <v>1.474268713662791</v>
+      <c r="I32" t="n">
+        <v>1.722985786129115</v>
       </c>
     </row>
     <row r="33">
@@ -2791,13 +2889,16 @@
         <v>1.106552502551635e-05</v>
       </c>
       <c r="F33" t="n">
+        <v>10.69444444444444</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.07373562777777777</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>0.9851349291050464</v>
       </c>
-      <c r="H33" t="n">
-        <v>1.467455486918605</v>
+      <c r="I33" t="n">
+        <v>1.715023131336868</v>
       </c>
     </row>
     <row r="34">
@@ -2817,13 +2918,16 @@
         <v>2.784284525725694e-05</v>
       </c>
       <c r="F34" t="n">
+        <v>12.08333333333333</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.0833116833333333</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0.9797225186766274</v>
       </c>
-      <c r="H34" t="n">
-        <v>1.459393168604651</v>
+      <c r="I34" t="n">
+        <v>1.705600656499375</v>
       </c>
     </row>
     <row r="35">
@@ -2843,13 +2947,16 @@
         <v>6.119572404495717e-05</v>
       </c>
       <c r="F35" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.09480294999999998</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>0.9735477969202622</v>
       </c>
-      <c r="H35" t="n">
-        <v>1.4501953125</v>
+      <c r="I35" t="n">
+        <v>1.694851072529841</v>
       </c>
     </row>
     <row r="36">
@@ -2869,13 +2976,16 @@
         <v>0.0001225179190315737</v>
       </c>
       <c r="F36" t="n">
+        <v>15.48611111111111</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.1067730194444444</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>0.9665345327031559</v>
       </c>
-      <c r="H36" t="n">
-        <v>1.439748364825582</v>
+      <c r="I36" t="n">
+        <v>1.682641668515062</v>
       </c>
     </row>
     <row r="37">
@@ -2895,13 +3005,16 @@
         <v>0.0002252044047937464</v>
       </c>
       <c r="F37" t="n">
+        <v>17.63888888888889</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.1216159055555555</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>0.958835188290898</v>
       </c>
-      <c r="H37" t="n">
-        <v>1.428279433139535</v>
+      <c r="I37" t="n">
+        <v>1.669237866281446</v>
       </c>
     </row>
     <row r="38">
@@ -2921,13 +3034,16 @@
         <v>0.0003822739089111645</v>
       </c>
       <c r="F38" t="n">
+        <v>19.79166666666666</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.1364587916666666</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>0.950678457081872</v>
       </c>
-      <c r="H38" t="n">
-        <v>1.41612917877907</v>
+      <c r="I38" t="n">
+        <v>1.655037798568604</v>
       </c>
     </row>
     <row r="39">
@@ -2947,13 +3063,16 @@
         <v>0.0006227602832191745</v>
       </c>
       <c r="F39" t="n">
+        <v>22.63888888888889</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.1560897055555555</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.9416831834121054</v>
       </c>
-      <c r="H39" t="n">
-        <v>1.402729832848837</v>
+      <c r="I39" t="n">
+        <v>1.639377910810518</v>
       </c>
     </row>
     <row r="40">
@@ -2973,13 +3092,16 @@
         <v>0.0009813756776213289</v>
       </c>
       <c r="F40" t="n">
+        <v>25.55555555555555</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.1761994222222222</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>0.9317731361488031</v>
       </c>
-      <c r="H40" t="n">
-        <v>1.387967841569767</v>
+      <c r="I40" t="n">
+        <v>1.622125492093982</v>
       </c>
     </row>
     <row r="41">
@@ -2999,13 +3121,16 @@
         <v>0.001512480155920204</v>
       </c>
       <c r="F41" t="n">
+        <v>28.68055555555555</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.1977455472222222</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.9207196218935813</v>
       </c>
-      <c r="H41" t="n">
-        <v>1.371502543604651</v>
+      <c r="I41" t="n">
+        <v>1.602882409679385</v>
       </c>
     </row>
     <row r="42">
@@ -3025,13 +3150,16 @@
         <v>0.002294263270442785</v>
       </c>
       <c r="F42" t="n">
+        <v>32.29166666666666</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.2226432916666666</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.908293947248056</v>
       </c>
-      <c r="H42" t="n">
-        <v>1.352993277616279</v>
+      <c r="I42" t="n">
+        <v>1.581250530827113</v>
       </c>
     </row>
     <row r="43">
@@ -3051,13 +3179,16 @@
         <v>0.003430200001724757</v>
       </c>
       <c r="F43" t="n">
+        <v>37.01388888888888</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.2552018805555555</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0.8943436499466382</v>
       </c>
-      <c r="H43" t="n">
-        <v>1.332212936046512</v>
+      <c r="I43" t="n">
+        <v>1.556964433710758</v>
       </c>
     </row>
     <row r="44">
@@ -3077,13 +3208,16 @@
         <v>0.005076615112631892</v>
       </c>
       <c r="F44" t="n">
+        <v>42.01388888888888</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.2896756805555555</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>0.8785638054581492</v>
       </c>
-      <c r="H44" t="n">
-        <v>1.30870730377907</v>
+      <c r="I44" t="n">
+        <v>1.529493274677505</v>
       </c>
     </row>
     <row r="45">
@@ -3103,13 +3237,16 @@
         <v>0.007451696628982717</v>
       </c>
       <c r="F45" t="n">
+        <v>47.36111111111111</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.3265434944444444</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.8606494892514102</v>
       </c>
-      <c r="H45" t="n">
-        <v>1.282022165697674</v>
+      <c r="I45" t="n">
+        <v>1.498306210074537</v>
       </c>
     </row>
     <row r="46">
@@ -3129,13 +3266,16 @@
         <v>0.01098185167260788</v>
       </c>
       <c r="F46" t="n">
+        <v>53.54166666666665</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.3691569416666665</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>0.8396096966000913</v>
       </c>
-      <c r="H46" t="n">
-        <v>1.250681322674418</v>
+      <c r="I46" t="n">
+        <v>1.461677998030199</v>
       </c>
     </row>
     <row r="47">
@@ -3155,13 +3295,16 @@
         <v>0.01610806808710408</v>
       </c>
       <c r="F47" t="n">
+        <v>60.41666666666666</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.4165584166666666</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>0.8153681963713979</v>
       </c>
-      <c r="H47" t="n">
-        <v>1.214571220930232</v>
+      <c r="I47" t="n">
+        <v>1.419475927631288</v>
       </c>
     </row>
     <row r="48">
@@ -3181,13 +3324,16 @@
         <v>0.02337659288983304</v>
       </c>
       <c r="F48" t="n">
+        <v>68.4722222222222</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.4720995388888887</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.7878487574325355</v>
       </c>
-      <c r="H48" t="n">
-        <v>1.173578306686047</v>
+      <c r="I48" t="n">
+        <v>1.3715672879646</v>
       </c>
     </row>
     <row r="49">
@@ -3207,13 +3353,16 @@
         <v>0.03349225846308403</v>
       </c>
       <c r="F49" t="n">
+        <v>77.77777777777776</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.536259111111111</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>0.7568226863851196</v>
       </c>
-      <c r="H49" t="n">
-        <v>1.127361918604651</v>
+      <c r="I49" t="n">
+        <v>1.317553946290523</v>
       </c>
     </row>
     <row r="50">
@@ -3233,13 +3382,16 @@
         <v>0.04680321980495899</v>
       </c>
       <c r="F50" t="n">
+        <v>88.19444444444443</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.6080795277777776</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.7232047568226861</v>
       </c>
-      <c r="H50" t="n">
-        <v>1.077284702034883</v>
+      <c r="I50" t="n">
+        <v>1.259028433567505</v>
       </c>
     </row>
     <row r="51">
@@ -3259,13 +3411,16 @@
         <v>0.06369481773624018</v>
       </c>
       <c r="F51" t="n">
+        <v>98.61111111111109</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.6798999444444442</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>0.6873761244092086</v>
       </c>
-      <c r="H51" t="n">
-        <v>1.023914425872093</v>
+      <c r="I51" t="n">
+        <v>1.196654304361567</v>
       </c>
     </row>
     <row r="52">
@@ -3285,13 +3440,16 @@
         <v>0.08402033948191764</v>
       </c>
       <c r="F52" t="n">
+        <v>111.8055555555555</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.770872472222222</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>0.6504040250038114</v>
       </c>
-      <c r="H52" t="n">
-        <v>0.9688408430232558</v>
+      <c r="I52" t="n">
+        <v>1.132289511457568</v>
       </c>
     </row>
     <row r="53">
@@ -3311,13 +3469,16 @@
         <v>0.1067080742793406</v>
       </c>
       <c r="F53" t="n">
+        <v>127.0833333333333</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.8762090833333331</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>0.6141942369263607</v>
       </c>
-      <c r="H53" t="n">
-        <v>0.9149027979651163</v>
+      <c r="I53" t="n">
+        <v>1.06925182768561</v>
       </c>
     </row>
     <row r="54">
@@ -3337,13 +3498,16 @@
         <v>0.1306006938501886</v>
       </c>
       <c r="F54" t="n">
+        <v>145.1388888888889</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.000697805555555</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>0.5799664583015702</v>
       </c>
-      <c r="H54" t="n">
-        <v>0.8639171511627907</v>
+      <c r="I54" t="n">
+        <v>1.00966462765696</v>
       </c>
     </row>
     <row r="55">
@@ -3363,13 +3527,16 @@
         <v>0.1549009929125225</v>
       </c>
       <c r="F55" t="n">
+        <v>163.8888888888889</v>
+      </c>
+      <c r="G55" t="n">
         <v>1.129974555555555</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>0.5481018447934135</v>
       </c>
-      <c r="H55" t="n">
-        <v>0.8164516715116278</v>
+      <c r="I55" t="n">
+        <v>0.9541914659376365</v>
       </c>
     </row>
     <row r="56">
@@ -3389,13 +3556,16 @@
         <v>0.1791647756598921</v>
       </c>
       <c r="F56" t="n">
+        <v>184.0277777777777</v>
+      </c>
+      <c r="G56" t="n">
         <v>1.268827361111111</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>0.5185241652690959</v>
       </c>
-      <c r="H56" t="n">
-        <v>0.7723928052325583</v>
+      <c r="I56" t="n">
+        <v>0.9026996316144376</v>
       </c>
     </row>
     <row r="57">
@@ -3415,13 +3585,16 @@
         <v>0.2039830907725494</v>
       </c>
       <c r="F57" t="n">
+        <v>206.9444444444444</v>
+      </c>
+      <c r="G57" t="n">
         <v>1.426832277777778</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>0.4900899527366976</v>
       </c>
-      <c r="H57" t="n">
-        <v>0.7300372456395348</v>
+      <c r="I57" t="n">
+        <v>0.8531984609892999</v>
       </c>
     </row>
     <row r="58">
@@ -3441,13 +3614,16 @@
         <v>0.2293477255515726</v>
       </c>
       <c r="F58" t="n">
+        <v>235.4166666666666</v>
+      </c>
+      <c r="G58" t="n">
         <v>1.623141416666666</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>0.4625705137978348</v>
       </c>
-      <c r="H58" t="n">
-        <v>0.6890443313953486</v>
+      <c r="I58" t="n">
+        <v>0.8052898213226116</v>
       </c>
     </row>
     <row r="59">
@@ -3467,13 +3643,16 @@
         <v>0.2551617448987032</v>
       </c>
       <c r="F59" t="n">
+        <v>266.6666666666666</v>
+      </c>
+      <c r="G59" t="n">
         <v>1.838602666666666</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>0.4358896173197135</v>
       </c>
-      <c r="H59" t="n">
-        <v>0.6493005087209305</v>
+      <c r="I59" t="n">
+        <v>0.7588410017011695</v>
       </c>
     </row>
     <row r="60">
@@ -3493,13 +3672,16 @@
         <v>0.2812785427979181</v>
       </c>
       <c r="F60" t="n">
+        <v>298.611111111111</v>
+      </c>
+      <c r="G60" t="n">
         <v>2.058851944444444</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>0.4100472633023327</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.6108057776162791</v>
+      <c r="I60" t="n">
+        <v>0.7138520021249719</v>
       </c>
     </row>
     <row r="61">
@@ -3519,13 +3701,16 @@
         <v>0.3078102132634558</v>
       </c>
       <c r="F61" t="n">
+        <v>337.4999999999999</v>
+      </c>
+      <c r="G61" t="n">
         <v>2.3269815</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0.3848147583473089</v>
       </c>
-      <c r="H61" t="n">
-        <v>0.5732194767441858</v>
+      <c r="I61" t="n">
+        <v>0.6699246898544073</v>
       </c>
     </row>
     <row r="62">
@@ -3545,13 +3730,16 @@
         <v>0.3349159457756246</v>
       </c>
       <c r="F62" t="n">
+        <v>380.5555555555555</v>
+      </c>
+      <c r="G62" t="n">
         <v>2.623839222222222</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>0.3599634090562584</v>
       </c>
-      <c r="H62" t="n">
-        <v>0.5362009447674416</v>
+      <c r="I62" t="n">
+        <v>0.6266609321498635</v>
       </c>
     </row>
     <row r="63">
@@ -3571,13 +3759,16 @@
         <v>0.362535074324399</v>
       </c>
       <c r="F63" t="n">
+        <v>433.3333333333333</v>
+      </c>
+      <c r="G63" t="n">
         <v>2.987729333333333</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>0.3354932154291813</v>
       </c>
-      <c r="H63" t="n">
-        <v>0.4997501816860466</v>
+      <c r="I63" t="n">
+        <v>0.5840607290113407</v>
       </c>
     </row>
     <row r="64">
@@ -3597,13 +3788,16 @@
         <v>0.3903421469226416</v>
       </c>
       <c r="F64" t="n">
+        <v>492.361111111111</v>
+      </c>
+      <c r="G64" t="n">
         <v>3.394711694444443</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>0.3116328708644608</v>
       </c>
-      <c r="H64" t="n">
-        <v>0.4642078488372091</v>
+      <c r="I64" t="n">
+        <v>0.5425222131784502</v>
       </c>
     </row>
     <row r="65">
@@ -3623,13 +3817,16 @@
         <v>0.4170567911943636</v>
       </c>
       <c r="F65" t="n">
+        <v>558.3333333333333</v>
+      </c>
+      <c r="G65" t="n">
         <v>3.849574333333333</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>0.2893733800884279</v>
       </c>
-      <c r="H65" t="n">
-        <v>0.431050145348837</v>
+      <c r="I65" t="n">
+        <v>0.5037706265228465</v>
       </c>
     </row>
     <row r="66">
@@ -3649,13 +3846,16 @@
         <v>0.442324414902356</v>
       </c>
       <c r="F66" t="n">
+        <v>632.6388888888888</v>
+      </c>
+      <c r="G66" t="n">
         <v>4.361893305555554</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>0.2688672053666716</v>
       </c>
-      <c r="H66" t="n">
-        <v>0.4005041787790696</v>
+      <c r="I66" t="n">
+        <v>0.4680713908709378</v>
       </c>
     </row>
     <row r="67">
@@ -3675,13 +3875,16 @@
         <v>0.4659823357785755</v>
       </c>
       <c r="F67" t="n">
+        <v>715.2777777777776</v>
+      </c>
+      <c r="G67" t="n">
         <v>4.93166861111111</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>0.2501143466991919</v>
       </c>
-      <c r="H67" t="n">
-        <v>0.3725699491279069</v>
+      <c r="I67" t="n">
+        <v>0.4354245062227239</v>
       </c>
     </row>
     <row r="68">
@@ -3701,13 +3904,16 @@
         <v>0.4881807964306887</v>
       </c>
       <c r="F68" t="n">
+        <v>805.5555555555554</v>
+      </c>
+      <c r="G68" t="n">
         <v>5.554112222222221</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>0.2328861106876048</v>
       </c>
-      <c r="H68" t="n">
-        <v>0.3469067950581395</v>
+      <c r="I68" t="n">
+        <v>0.4054318398385925</v>
       </c>
     </row>
     <row r="69">
@@ -3727,13 +3933,16 @@
         <v>0.5096110162798148</v>
       </c>
       <c r="F69" t="n">
+        <v>909.7222222222221</v>
+      </c>
+      <c r="G69" t="n">
         <v>6.272316388888888</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>0.2165726482695533</v>
       </c>
-      <c r="H69" t="n">
-        <v>0.3226062863372093</v>
+      <c r="I69" t="n">
+        <v>0.3770317044129104</v>
       </c>
     </row>
     <row r="70">
@@ -3753,13 +3962,16 @@
         <v>0.5310301487584368</v>
       </c>
       <c r="F70" t="n">
+        <v>1027.777777777778</v>
+      </c>
+      <c r="G70" t="n">
         <v>7.086281111111109</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>0.2005641103826803</v>
       </c>
-      <c r="H70" t="n">
-        <v>0.2987599927325582</v>
+      <c r="I70" t="n">
+        <v>0.3491624126400449</v>
       </c>
     </row>
     <row r="71">
@@ -3779,13 +3991,16 @@
         <v>0.552522581170147</v>
       </c>
       <c r="F71" t="n">
+        <v>1166.666666666667</v>
+      </c>
+      <c r="G71" t="n">
         <v>8.043886666666666</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>0.1847842658941912</v>
       </c>
-      <c r="H71" t="n">
-        <v>0.2752543604651163</v>
+      <c r="I71" t="n">
+        <v>0.3216912536067916</v>
       </c>
     </row>
     <row r="72">
@@ -3805,13 +4020,16 @@
         <v>0.574180485658048</v>
       </c>
       <c r="F72" t="n">
+        <v>1319.444444444444</v>
+      </c>
+      <c r="G72" t="n">
         <v>9.097252777777776</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>0.1691568836712912</v>
       </c>
-      <c r="H72" t="n">
-        <v>0.2519758357558137</v>
+      <c r="I72" t="n">
+        <v>0.2944855163999463</v>
       </c>
     </row>
     <row r="73">
@@ -3831,13 +4049,16 @@
         <v>0.5958868702864644</v>
       </c>
       <c r="F73" t="n">
+        <v>1479.166666666666</v>
+      </c>
+      <c r="G73" t="n">
         <v>10.19849916666666</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>0.1537581948467752</v>
       </c>
-      <c r="H73" t="n">
-        <v>0.2290379723837207</v>
+      <c r="I73" t="n">
+        <v>0.2676779119327136</v>
       </c>
     </row>
     <row r="74">
@@ -3857,13 +4078,16 @@
         <v>0.6174076486734581</v>
       </c>
       <c r="F74" t="n">
+        <v>1680.555555555555</v>
+      </c>
+      <c r="G74" t="n">
         <v>11.58702722222222</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>0.1387406616862326</v>
       </c>
-      <c r="H74" t="n">
-        <v>0.2066678779069766</v>
+      <c r="I74" t="n">
+        <v>0.2415338620315018</v>
       </c>
     </row>
     <row r="75">
@@ -3883,13 +4107,16 @@
         <v>0.6389424230024566</v>
       </c>
       <c r="F75" t="n">
+        <v>1895.833333333333</v>
+      </c>
+      <c r="G75" t="n">
         <v>13.07131583333333</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>0.1239518219240737</v>
       </c>
-      <c r="H75" t="n">
-        <v>0.1846384447674417</v>
+      <c r="I75" t="n">
+        <v>0.215787944869902</v>
       </c>
     </row>
     <row r="76">
@@ -3909,13 +4136,16 @@
         <v>0.6591149978117392</v>
       </c>
       <c r="F76" t="n">
+        <v>2152.777777777777</v>
+      </c>
+      <c r="G76" t="n">
         <v>14.84288611111111</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>0.1103064491538343</v>
       </c>
-      <c r="H76" t="n">
-        <v>0.1643123183139532</v>
+      <c r="I76" t="n">
+        <v>0.1920326914063641</v>
       </c>
     </row>
     <row r="77">
@@ -3935,13 +4165,16 @@
         <v>0.6787743923834679</v>
       </c>
       <c r="F77" t="n">
+        <v>2437.5</v>
+      </c>
+      <c r="G77" t="n">
         <v>16.80597749999999</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>0.09719469431315743</v>
       </c>
-      <c r="H77" t="n">
-        <v>0.1447810683139534</v>
+      <c r="I77" t="n">
+        <v>0.1692064143352554</v>
       </c>
     </row>
     <row r="78">
@@ -3961,13 +4194,16 @@
         <v>0.6978892362120537</v>
       </c>
       <c r="F78" t="n">
+        <v>2743.055555555555</v>
+      </c>
+      <c r="G78" t="n">
         <v>18.91270972222222</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>0.08461655740204281</v>
       </c>
-      <c r="H78" t="n">
-        <v>0.1260446947674416</v>
+      <c r="I78" t="n">
+        <v>0.147309113656575</v>
       </c>
     </row>
     <row r="79">
@@ -3987,13 +4223,16 @@
         <v>0.7165471777707879</v>
       </c>
       <c r="F79" t="n">
+        <v>3111.11111111111</v>
+      </c>
+      <c r="G79" t="n">
         <v>21.45036444444444</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>0.07249580728769625</v>
       </c>
-      <c r="H79" t="n">
-        <v>0.1079896438953488</v>
+      <c r="I79" t="n">
+        <v>0.1262080784571199</v>
       </c>
     </row>
     <row r="80">
@@ -4013,13 +4252,16 @@
         <v>0.7347230077867158</v>
       </c>
       <c r="F80" t="n">
+        <v>3527.777777777777</v>
+      </c>
+      <c r="G80" t="n">
         <v>24.32318111111111</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>0.06083244397011747</v>
       </c>
-      <c r="H80" t="n">
-        <v>0.09061591569767455</v>
+      <c r="I80" t="n">
+        <v>0.1059033087368894</v>
       </c>
     </row>
     <row r="81">
@@ -4039,13 +4281,16 @@
         <v>0.7523921999547832</v>
       </c>
       <c r="F81" t="n">
+        <v>3986.11111111111</v>
+      </c>
+      <c r="G81" t="n">
         <v>27.48327944444443</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>0.04962646744930636</v>
       </c>
-      <c r="H81" t="n">
-        <v>0.0739235101744187</v>
+      <c r="I81" t="n">
+        <v>0.08639480449588349</v>
       </c>
     </row>
     <row r="82">
@@ -4065,13 +4310,16 @@
         <v>0.7695309404466497</v>
       </c>
       <c r="F82" t="n">
+        <v>4506.944444444443</v>
+      </c>
+      <c r="G82" t="n">
         <v>31.07430027777777</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>0.03887787772526306</v>
       </c>
-      <c r="H82" t="n">
-        <v>0.05791242732558149</v>
+      <c r="I82" t="n">
+        <v>0.06768256573410229</v>
       </c>
     </row>
     <row r="83">
@@ -4091,13 +4339,16 @@
         <v>0.7861161604107543</v>
       </c>
       <c r="F83" t="n">
+        <v>5090.277777777776</v>
+      </c>
+      <c r="G83" t="n">
         <v>35.09624361111111</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>0.02858667479798757</v>
       </c>
-      <c r="H83" t="n">
-        <v>0.04258266715116291</v>
+      <c r="I83" t="n">
+        <v>0.04976659245154585</v>
       </c>
     </row>
     <row r="84">
@@ -4117,13 +4368,16 @@
         <v>0.802250291018614</v>
       </c>
       <c r="F84" t="n">
+        <v>5756.944444444443</v>
+      </c>
+      <c r="G84" t="n">
         <v>39.69275027777777</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>0.01867662753468521</v>
       </c>
-      <c r="H84" t="n">
-        <v>0.0278206758720931</v>
+      <c r="I84" t="n">
+        <v>0.03251417373500996</v>
       </c>
     </row>
     <row r="85">
@@ -4143,13 +4397,16 @@
         <v>0.8179153972262196</v>
       </c>
       <c r="F85" t="n">
+        <v>6513.888888888888</v>
+      </c>
+      <c r="G85" t="n">
         <v>44.91170055555555</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>0.00914773593535592</v>
       </c>
-      <c r="H85" t="n">
-        <v>0.01362645348837198</v>
+      <c r="I85" t="n">
+        <v>0.0159253095844945</v>
       </c>
     </row>
     <row r="86">
@@ -4169,12 +4426,15 @@
         <v>0.8330940948544628</v>
       </c>
       <c r="F86" t="n">
+        <v>7430.555555555554</v>
+      </c>
+      <c r="G86" t="n">
         <v>51.23189722222222</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4189,7 +4449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4238,13 +4498,18 @@
           <t>lambda_i</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Interpolated_Capillary_Pressure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7</v>
+        <v>0.6115485204597271</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -4253,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4262,1284 +4527,1729 @@
         <v>1.560852357618379</v>
       </c>
       <c r="H2" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.624999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9836814213578557</v>
+        <v>0.984523478191722</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6898038703374475</v>
+        <v>0.6039995798665567</v>
       </c>
       <c r="C3" t="n">
         <v>0.9540493922229661</v>
       </c>
       <c r="D3" t="n">
-        <v>1.192386396646932e-05</v>
+        <v>1.057521988895073e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9540498417228215</v>
+        <v>0.7652365297170687</v>
       </c>
       <c r="F3" t="n">
-        <v>1.192374732437497e-05</v>
+        <v>1.000072034217862e-05</v>
       </c>
       <c r="G3" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H3" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.23099709367311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9673628427157114</v>
+        <v>0.969046956383444</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679607740674895</v>
+        <v>0.5964506392733863</v>
       </c>
       <c r="C4" t="n">
         <v>0.9093092307298296</v>
       </c>
       <c r="D4" t="n">
-        <v>9.413450207572181e-05</v>
+        <v>8.348745518961287e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9093100965911821</v>
+        <v>0.731299328695968</v>
       </c>
       <c r="F4" t="n">
-        <v>9.413360333566324e-05</v>
+        <v>7.905496147994193e-05</v>
       </c>
       <c r="G4" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H4" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.61095395253812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.951044264073567</v>
+        <v>0.953570434575166</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6694116110123426</v>
+        <v>0.5889016986802159</v>
       </c>
       <c r="C5" t="n">
         <v>0.8657723663763055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003134802582965949</v>
+        <v>0.0002780241934706655</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8657736162353912</v>
+        <v>0.6981857113860653</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003134773393287309</v>
+        <v>0.0002636084939394504</v>
       </c>
       <c r="G5" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H5" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.28114070486946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9347256854314228</v>
+        <v>0.938093912766888</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6592154813497901</v>
+        <v>0.5813527580870455</v>
       </c>
       <c r="C6" t="n">
         <v>0.8234315398390397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0007330926493748835</v>
+        <v>0.0006501764854005138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8234331421150959</v>
+        <v>0.6658929434831381</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007330859969025339</v>
+        <v>0.0006172765410230669</v>
       </c>
       <c r="G6" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H6" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25.43696581196576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9184071067892785</v>
+        <v>0.92261739095861</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6490193516872376</v>
+        <v>0.5738038174938751</v>
       </c>
       <c r="C7" t="n">
         <v>0.7822793774652433</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00141242478140679</v>
+        <v>0.00125267301622888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7822813013691774</v>
+        <v>0.634418239954694</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001412412300413663</v>
+        <v>0.001190859875683846</v>
       </c>
       <c r="G7" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H7" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30.27881244522347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9020885281471341</v>
+        <v>0.907140869150332</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6388232220246851</v>
+        <v>0.5662548769007048</v>
       </c>
       <c r="C8" t="n">
         <v>0.7423083868694406</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002407290697577321</v>
+        <v>0.002135015003114281</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7423106024127716</v>
+        <v>0.6037587629391838</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002407270000524801</v>
+        <v>0.002032361376960461</v>
       </c>
       <c r="G8" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H8" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35.68680067655475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8857699495049898</v>
+        <v>0.891664347342054</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6286270923621327</v>
+        <v>0.5587059363075343</v>
       </c>
       <c r="C9" t="n">
         <v>0.7035109522557684</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003769905708543025</v>
+        <v>0.003343511963954245</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7035134302598591</v>
+        <v>0.5739116195079723</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003769874200324295</v>
+        <v>0.003187003073289919</v>
       </c>
       <c r="G9" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H9" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I9" t="n">
+        <v>41.14432367149758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8694513708628455</v>
+        <v>0.8761878255337759</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6184309626995802</v>
+        <v>0.5511569957143639</v>
       </c>
       <c r="C10" t="n">
         <v>0.665879329441878</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005548927761324465</v>
+        <v>0.004921318407265</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6658820415474702</v>
+        <v>0.544873859277665</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005548882719878848</v>
+        <v>0.004697243702454866</v>
       </c>
       <c r="G10" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H10" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I10" t="n">
+        <v>46.25591016548464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8531327922207013</v>
+        <v>0.860711303725498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6082348330370277</v>
+        <v>0.5436080551211935</v>
       </c>
       <c r="C11" t="n">
         <v>0.6294056405577704</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007789499907464171</v>
+        <v>0.006908471496994658</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6294085592348432</v>
+        <v>0.5166424718589396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007789438559971395</v>
+        <v>0.00660279682065201</v>
       </c>
       <c r="G11" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H11" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I11" t="n">
+        <v>51.2543492638601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8368142135785569</v>
+        <v>0.8452347819172199</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5980387033744753</v>
+        <v>0.5360591145280231</v>
       </c>
       <c r="C12" t="n">
         <v>0.5940818683897999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01053329393667454</v>
+        <v>0.009341929751004034</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5940849669477674</v>
+        <v>0.4892143841263771</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0105332135312447</v>
+        <v>0.008940649496232534</v>
       </c>
       <c r="G12" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H12" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I12" t="n">
+        <v>56.14218328840968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8204956349364125</v>
+        <v>0.8297582601089419</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5878425737119228</v>
+        <v>0.5285101739348528</v>
       </c>
       <c r="C13" t="n">
         <v>0.5598998503365333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01381855524833261</v>
+        <v>0.01225561283738816</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5599031029348027</v>
+        <v>0.4625864572918863</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01381845312110334</v>
+        <v>0.0117450816271145</v>
       </c>
       <c r="G13" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H13" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I13" t="n">
+        <v>60.96815503671455</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8041770562942683</v>
+        <v>0.814281738300664</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5776464440493703</v>
+        <v>0.5209612333416823</v>
       </c>
       <c r="C14" t="n">
         <v>0.5268512719390801</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01768014904007786</v>
+        <v>0.01568044253893037</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5268546535979926</v>
+        <v>0.4367554837621302</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01768002267762557</v>
+        <v>0.01504768592476305</v>
       </c>
       <c r="G14" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H14" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I14" t="n">
+        <v>65.93155036714592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.787858477652124</v>
+        <v>0.798805216492386</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5674503143868179</v>
+        <v>0.513412292748512</v>
       </c>
       <c r="C15" t="n">
         <v>0.4949276599438179</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02214960790055522</v>
+        <v>0.01964438496288631</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4949311465559936</v>
+        <v>0.4117181837578294</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02214945499752239</v>
+        <v>0.01887738861204868</v>
       </c>
       <c r="G15" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H15" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>70.95457470457468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7715398990099797</v>
+        <v>0.7833286946841079</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5572541847242654</v>
+        <v>0.5058633521553415</v>
       </c>
       <c r="C16" t="n">
         <v>0.4641203748500116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02725518090216396</v>
+        <v>0.0241724940811162</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4641239431921266</v>
+        <v>0.387471201669886</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02725499941399888</v>
+        <v>0.02326047088731359</v>
       </c>
       <c r="G16" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H16" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I16" t="n">
+        <v>76.04013104013102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7552213203678353</v>
+        <v>0.76785217287583</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5470580550617129</v>
+        <v>0.4983144115621712</v>
       </c>
       <c r="C17" t="n">
         <v>0.4344206028885317</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03302188429969426</v>
+        <v>0.02928695669447154</v>
       </c>
       <c r="E17" t="n">
-        <v>0.434424230633554</v>
+        <v>0.3640111021238572</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03302167249039391</v>
+        <v>0.02822059121270555</v>
       </c>
       <c r="G17" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H17" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I17" t="n">
+        <v>81.2365025375229</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.738902741725691</v>
+        <v>0.7523756510675519</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5368619253991604</v>
+        <v>0.4907654709690008</v>
       </c>
       <c r="C18" t="n">
         <v>0.4058193473705349</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03947155395216993</v>
+        <v>0.03500713892548526</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4058230131004489</v>
+        <v>0.3413343657203083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03947131043691</v>
+        <v>0.03377880849140499</v>
       </c>
       <c r="G18" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H18" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I18" t="n">
+        <v>86.49038980671629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7225841630835468</v>
+        <v>0.7368991292592739</v>
       </c>
       <c r="B19" t="n">
-        <v>0.526665795736608</v>
+        <v>0.4832165303758303</v>
       </c>
       <c r="C19" t="n">
         <v>0.3783074193363902</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04662289959831231</v>
+        <v>0.04134963435503011</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3783111025554458</v>
+        <v>0.3194373844138874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04662262338084155</v>
+        <v>0.03995360620592369</v>
       </c>
       <c r="G19" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H19" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I19" t="n">
+        <v>91.52524484971289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7062655844414024</v>
+        <v>0.721422607450996</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5164696660740555</v>
+        <v>0.47566758978266</v>
       </c>
       <c r="C20" t="n">
         <v>0.351875427425036</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05449156113111254</v>
+        <v>0.04832831393197684</v>
       </c>
       <c r="E20" t="n">
-        <v>0.351879108573556</v>
+        <v>0.2983164564884288</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05449125163578079</v>
+        <v>0.04676091759838628</v>
       </c>
       <c r="G20" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H20" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I20" t="n">
+        <v>96.4549560959135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6899470057992581</v>
+        <v>0.705946085642718</v>
       </c>
       <c r="B21" t="n">
-        <v>0.506273536411503</v>
+        <v>0.4681186491894896</v>
       </c>
       <c r="C21" t="n">
         <v>0.3265137668720358</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06309016703441314</v>
+        <v>0.05595437780032864</v>
       </c>
       <c r="E21" t="n">
-        <v>0.326517427340825</v>
+        <v>0.2779677810788305</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06308982413269375</v>
+        <v>0.05421415198384057</v>
       </c>
       <c r="G21" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H21" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I21" t="n">
+        <v>102.0156275568646</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6736284271571138</v>
+        <v>0.6904695638344399</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4960774067489506</v>
+        <v>0.4605697085963192</v>
       </c>
       <c r="C22" t="n">
         <v>0.3022126075304521</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07242839516462468</v>
+        <v>0.06423640920624492</v>
       </c>
       <c r="E22" t="n">
-        <v>0.30221622967585</v>
+        <v>0.258387452182635</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07242801919598287</v>
+        <v>0.06232422229947261</v>
       </c>
       <c r="G22" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H22" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I22" t="n">
+        <v>108.0668057601047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6573098485149695</v>
+        <v>0.6749930420261619</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4858812770863981</v>
+        <v>0.4530207680031488</v>
       </c>
       <c r="C23" t="n">
         <v>0.2789618807917724</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08251303608430847</v>
+        <v>0.07318043066830332</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2789654479514018</v>
+        <v>0.2395714520948797</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08251262787125653</v>
+        <v>0.07109957400647608</v>
       </c>
       <c r="G23" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H23" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I23" t="n">
+        <v>114.5394736842105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6409912698728252</v>
+        <v>0.6595165202178839</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4756851474238456</v>
+        <v>0.4454718274099784</v>
       </c>
       <c r="C24" t="n">
         <v>0.2567512652638603</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09334805918205967</v>
+        <v>0.08278996261891874</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2567547617731247</v>
+        <v>0.2215156441884962</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09334762003922835</v>
+        <v>0.08054621547769278</v>
       </c>
       <c r="G24" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H24" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I24" t="n">
+        <v>121.6936090225564</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6246726912306808</v>
+        <v>0.6440399984096059</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4654890177612931</v>
+        <v>0.437922886816808</v>
       </c>
       <c r="C25" t="n">
         <v>0.2355701710384424</v>
       </c>
       <c r="D25" t="n">
-        <v>0.104934681845829</v>
+        <v>0.09306608475384294</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2355735822478353</v>
+        <v>0.204215764948858</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1049342135828717</v>
+        <v>0.09066775002356275</v>
       </c>
       <c r="G25" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H25" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I25" t="n">
+        <v>129.2892936684696</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.6083541125885366</v>
+        <v>0.6285634766013279</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4552928880987407</v>
+        <v>0.4303739462236376</v>
       </c>
       <c r="C26" t="n">
         <v>0.2154077223509153</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1172714419956671</v>
+        <v>0.1040075003611206</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2154110346442084</v>
+        <v>0.1876674151543818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1172709469137986</v>
+        <v>0.1014654097321188</v>
       </c>
       <c r="G26" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H26" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I26" t="n">
+        <v>138.2337734648425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5920355339463923</v>
+        <v>0.61308695479305</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4450967584361882</v>
+        <v>0.4228250056304672</v>
       </c>
       <c r="C27" t="n">
         <v>0.1962527383988799</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1303542743283357</v>
+        <v>0.1156106039420827</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1962559392122688</v>
+        <v>0.1718660500745613</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1303537552102914</v>
+        <v>0.1129380913266565</v>
       </c>
       <c r="G27" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H27" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I27" t="n">
+        <v>147.4137521834889</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5757169553042479</v>
+        <v>0.5976104329847719</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4349006287736358</v>
+        <v>0.4152760650372969</v>
       </c>
       <c r="C28" t="n">
         <v>0.1780937120409794</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1441765906821831</v>
+        <v>0.1278695524865836</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1780967898832729</v>
+        <v>0.1568069685313982</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1441760507753652</v>
+        <v>0.1250823942785066</v>
       </c>
       <c r="G28" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H28" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I28" t="n">
+        <v>157.3911103516366</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5593983766621036</v>
+        <v>0.5821339111764938</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4247044991110833</v>
+        <v>0.4077271244441265</v>
       </c>
       <c r="C29" t="n">
         <v>0.1609187860418925</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1587293649986172</v>
+        <v>0.1407763408249392</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1609217305158444</v>
+        <v>0.1424853006384602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1587288079911752</v>
+        <v>0.1378926614536101</v>
       </c>
       <c r="G29" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H29" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I29" t="n">
+        <v>167.9151836851579</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5430797980199593</v>
+        <v>0.5666573893682159</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4145083694485308</v>
+        <v>0.400178183850956</v>
       </c>
       <c r="C30" t="n">
         <v>0.1447157264595076</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1740012234396668</v>
+        <v>0.1543208815527758</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1447185282844023</v>
+        <v>0.1288959939918164</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1740006534292333</v>
+        <v>0.1513610226224379</v>
       </c>
       <c r="G30" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H30" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I30" t="n">
+        <v>179.4601947308134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5267612193778151</v>
+        <v>0.5511808675599379</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4043122397859784</v>
+        <v>0.3926292432577857</v>
       </c>
       <c r="C31" t="n">
         <v>0.1294718926819417</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1899785403238664</v>
+        <v>0.1684910901161236</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1294745437175626</v>
+        <v>0.1160337980362532</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1899779617786439</v>
+        <v>0.1654774412260178</v>
       </c>
       <c r="G31" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H31" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I31" t="n">
+        <v>192.2869058257799</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.5104426407356707</v>
+        <v>0.5357043457516599</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3941161101234258</v>
+        <v>0.3850803026646152</v>
       </c>
       <c r="C32" t="n">
         <v>0.1151742035091489</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2066455406709032</v>
+        <v>0.1832729757577896</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1151766967812756</v>
+        <v>0.1038932462648325</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2066449583827639</v>
+        <v>0.1802297648702454</v>
       </c>
       <c r="G32" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H32" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I32" t="n">
+        <v>205.9526469211455</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4941240620935263</v>
+        <v>0.520227823943382</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3839199804608734</v>
+        <v>0.3775313620714449</v>
       </c>
       <c r="C33" t="n">
         <v>0.1018090985279135</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2239844103071858</v>
+        <v>0.1986507391694795</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1018114282555183</v>
+        <v>0.09246863582491655</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2239838293364112</v>
+        <v>0.1956037801215392</v>
       </c>
       <c r="G33" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H33" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I33" t="n">
+        <v>223.2142857142855</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4778054834513821</v>
+        <v>0.5047513021351039</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3737238507983209</v>
+        <v>0.3699824214782745</v>
       </c>
       <c r="C34" t="n">
         <v>0.0893624938380988</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241975414690953</v>
+        <v>0.2146068778772369</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08936465546244007</v>
+        <v>0.08175400399200212</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2419748403021947</v>
+        <v>0.2115832723066239</v>
       </c>
       <c r="G34" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H34" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I34" t="n">
+        <v>241.4625850340135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4614869048092378</v>
+        <v>0.4892747803268259</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3635277211357685</v>
+        <v>0.3624334808851041</v>
       </c>
       <c r="C35" t="n">
         <v>0.07781973093488308</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2605970278826002</v>
+        <v>0.2311223006246305</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07782172115072629</v>
+        <v>0.0717431008235616</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2605964654715934</v>
+        <v>0.2281500911883164</v>
       </c>
       <c r="G35" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H35" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I35" t="n">
+        <v>261.3222789115648</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4451683261670935</v>
+        <v>0.4737982585185478</v>
       </c>
       <c r="B36" t="n">
-        <v>0.353331591473216</v>
+        <v>0.3548845402919337</v>
       </c>
       <c r="C36" t="n">
         <v>0.06716551721107838</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2798260734364092</v>
+        <v>0.2481764523289789</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06716733400031807</v>
+        <v>0.06242935710305438</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2798255284469083</v>
+        <v>0.2452842236128876</v>
       </c>
       <c r="G36" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H36" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I36" t="n">
+        <v>281.9859999063541</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4288497475249491</v>
+        <v>0.4583217367102699</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3431354618106635</v>
+        <v>0.3473355996987633</v>
       </c>
       <c r="C37" t="n">
         <v>0.05738385607764491</v>
       </c>
       <c r="D37" t="n">
-        <v>0.299637879457458</v>
+        <v>0.2657474516006073</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05738549874565121</v>
+        <v>0.05380584640594373</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2996373572877909</v>
+        <v>0.2629638745255073</v>
       </c>
       <c r="G37" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H37" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I37" t="n">
+        <v>304.015609264854</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4125311688828048</v>
+        <v>0.4428452149019919</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3329393321481111</v>
+        <v>0.3397866591055929</v>
       </c>
       <c r="C38" t="n">
         <v>0.04845796405117606</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3200064507026935</v>
+        <v>0.2838122433784948</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04845943326625437</v>
+        <v>0.04586523972880906</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3200059566012405</v>
+        <v>0.2811655581627153</v>
       </c>
       <c r="G38" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H38" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I38" t="n">
+        <v>330.148539778449</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3962125902406606</v>
+        <v>0.4273686930937138</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3227432024855586</v>
+        <v>0.3322377185124225</v>
       </c>
       <c r="C39" t="n">
         <v>0.04037017123329192</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3409046614859815</v>
+        <v>0.302346770016872</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04037146906972591</v>
+        <v>0.03859975056229045</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3409042004347751</v>
+        <v>0.2998642018081444</v>
       </c>
       <c r="G39" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H39" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I39" t="n">
+        <v>358.6126935436751</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3798940115985162</v>
+        <v>0.4118921712854359</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3125470728230061</v>
+        <v>0.3246887779192521</v>
       </c>
       <c r="C40" t="n">
         <v>0.03310180026105429</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3623044743972543</v>
+        <v>0.3213261652662232</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03310293024630687</v>
+        <v>0.03200106746533992</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3623040509827593</v>
+        <v>0.3190332653253248</v>
       </c>
       <c r="G40" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H40" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I40" t="n">
+        <v>389.8098699500567</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.3635754329563718</v>
+        <v>0.3964156494771579</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3023509431604536</v>
+        <v>0.3171398373260818</v>
       </c>
       <c r="C41" t="n">
         <v>0.02663301679309569</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3841771916688794</v>
+        <v>0.3407249772089576</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02663398395987849</v>
+        <v>0.02606026995472042</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3841768099388383</v>
+        <v>0.3386448809009107</v>
       </c>
       <c r="G41" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H41" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I41" t="n">
+        <v>426.3808534836572</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.3472568543142276</v>
+        <v>0.3809391276688798</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2921548134979012</v>
+        <v>0.3095908967329113</v>
       </c>
       <c r="C42" t="n">
         <v>0.02094264148470304</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4064937487644515</v>
+        <v>0.3605174286419539</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02094345242880336</v>
+        <v>0.02076772158392298</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4064934120694616</v>
+        <v>0.3586700192869573</v>
       </c>
       <c r="G42" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H42" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I42" t="n">
+        <v>467.3059612556418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.3309382756720833</v>
+        <v>0.3654626058606019</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2819586838353487</v>
+        <v>0.3020419561397409</v>
       </c>
       <c r="C43" t="n">
         <v>0.01600790841850421</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4292250640434108</v>
+        <v>0.3806777271924949</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0160085713634952</v>
+        <v>0.01611293094333251</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4292247748616088</v>
+        <v>0.3790786917612181</v>
       </c>
       <c r="G43" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H43" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I43" t="n">
+        <v>512.5981871058923</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.314619697029939</v>
+        <v>0.3499860840523239</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2717625541727963</v>
+        <v>0.2944930155465705</v>
       </c>
       <c r="C44" t="n">
         <v>0.011804146605958</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4523424653276564</v>
+        <v>0.4011804436382276</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01180467147623536</v>
+        <v>0.01208436598828747</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4523422250705106</v>
+        <v>0.3998402018646591</v>
       </c>
       <c r="G44" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H44" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I44" t="n">
+        <v>563.8579099545639</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.2983011183877946</v>
+        <v>0.3345095622440458</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2615664245102438</v>
+        <v>0.2869440749534001</v>
       </c>
       <c r="C45" t="n">
         <v>0.008304346419324208</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4758182261805189</v>
+        <v>0.422000987530507</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00830474492333705</v>
+        <v>0.008669197568831393</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4758180349772281</v>
+        <v>0.420923469417645</v>
       </c>
       <c r="G45" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H45" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I45" t="n">
+        <v>625.2990942349678</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2819825397456504</v>
+        <v>0.3190330404357679</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2513702948476913</v>
+        <v>0.2793951343602298</v>
       </c>
       <c r="C46" t="n">
         <v>0.00547854494754173</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4996262667141861</v>
+        <v>0.443116228737266</v>
       </c>
       <c r="E46" t="n">
-        <v>0.005478830673637988</v>
+        <v>0.005852929763625564</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4996261231715184</v>
+        <v>0.4422974650749606</v>
       </c>
       <c r="G46" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H46" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I46" t="n">
+        <v>698.4332655826558</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.2656639611035061</v>
+        <v>0.3035565186274899</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2411741651851388</v>
+        <v>0.2718461937670594</v>
       </c>
       <c r="C47" t="n">
         <v>0.003292906938339868</v>
       </c>
       <c r="D47" t="n">
-        <v>0.523743117735104</v>
+        <v>0.4645053525391195</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003293095466287139</v>
+        <v>0.003618836384325012</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5237430186686726</v>
+        <v>0.4639318257790411</v>
       </c>
       <c r="G47" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H47" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I47" t="n">
+        <v>784.0988902935807</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.2493453824613617</v>
+        <v>0.2880799968192118</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2309780355225863</v>
+        <v>0.264297253173889</v>
       </c>
       <c r="C48" t="n">
         <v>0.001708245651315746</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5481493456329354</v>
+        <v>0.4861511233568014</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001708354682921647</v>
+        <v>0.001947032957276518</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5481492857650629</v>
+        <v>0.4857977950032937</v>
       </c>
       <c r="G48" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H48" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I48" t="n">
+        <v>887.6789422934291</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2330268038192174</v>
+        <v>0.2726034750109338</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2207819058600339</v>
+        <v>0.2567483125807186</v>
       </c>
       <c r="C49" t="n">
         <v>0.0006773674499557154</v>
       </c>
       <c r="D49" t="n">
-        <v>0.572831895847688</v>
+        <v>0.508041963161339</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0006774169601923296</v>
+        <v>0.000812761925348758</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5728318674674215</v>
+        <v>0.5078698311986363</v>
       </c>
       <c r="G49" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H49" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1009.30650037793</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2167082251770731</v>
+        <v>0.2571269532026559</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2105857761974814</v>
+        <v>0.2491993719875482</v>
       </c>
       <c r="C50" t="n">
         <v>0.00013933787709495</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5977887113201431</v>
+        <v>0.5301760475564101</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0001393502686618449</v>
+        <v>0.0001825398766735988</v>
       </c>
       <c r="F50" t="n">
-        <v>0.597788703911572</v>
+        <v>0.5301289417598213</v>
       </c>
       <c r="G50" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H50" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1154.972778161185</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.2003896465349289</v>
+        <v>0.2416504313943778</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2003896465349289</v>
+        <v>0.2416504313943778</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6230428446650855</v>
+        <v>0.5525738217996137</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6230428446650855</v>
+        <v>0.5525738217996137</v>
       </c>
       <c r="G51" t="n">
         <v>1.560852357618379</v>
       </c>
       <c r="H51" t="n">
-        <v>1.560880192305588</v>
+        <v>1.732169887198304</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1319.444444444444</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CB7B5A94B3B66459EB2A158AFFC5DBC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ab064ae1c06d5d5cb1b59fac93aef9e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xmlns:ns3="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c0cefaab21e83ce2f7997d16a1f1916" ns2:_="" ns3:_="">
+    <xsd:import namespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
+    <xsd:import namespace="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:Project_x0020_Type" minOccurs="0"/>
+                <xsd:element ref="ns2:Project_x0020_Name" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Project_x0020_Type" ma:index="19" nillable="true" ma:displayName="Project Type" ma:default="Enter Choice #1" ma:format="Dropdown" ma:internalName="Project_x0020_Type">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Enter Choice #1"/>
+          <xsd:enumeration value="Enter Choice #2"/>
+          <xsd:enumeration value="Enter Choice #3"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Project_x0020_Name" ma:index="20" nillable="true" ma:displayName="Project Name" ma:internalName="Project_x0020_Name">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoice">
+            <xsd:sequence>
+              <xsd:element name="Value" maxOccurs="unbounded" minOccurs="0" nillable="true">
+                <xsd:simpleType>
+                  <xsd:restriction base="dms:Choice">
+                    <xsd:enumeration value="Sterling&amp;Adena"/>
+                    <xsd:enumeration value="Four Corners"/>
+                  </xsd:restriction>
+                </xsd:simpleType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="61128053-81a9-4f46-8667-b4595cb21c10" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{50fc448d-3904-4a19-944c-e0ed7da12a7c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B794536E-EBEB-41AC-AE47-E863371C1BC6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8E8EBF-E0B2-40B8-88FE-0593145D630A}"/>
 </file>